--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/15_Bayburt_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/15_Bayburt_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC91821-9E51-4463-9D48-495954C6A420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{812CBAA4-B817-4191-8209-75D8401DF58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{BC86DD4E-B134-4D3C-B60D-046C5EBF1816}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{D2CA9FE8-E897-421D-AFB2-9076C9E8DEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{02E36899-9EEC-4AB4-94DA-5DF03E5DD88A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AC3E0BE9-FD5F-4759-9A67-73747251FA13}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{458C60B7-ABD0-4FEB-A935-4E8FD8007528}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E7475B34-BD12-4447-8D87-CF01CC59C6F8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{30EB150B-D0B8-4C76-BACA-515E16A614A5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E40573E2-1FF2-4120-8DDA-DE4587537725}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{A95D64C7-1372-45F9-8726-5D9FC119C48C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{33099284-5F11-40BF-B498-B209482723A3}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{48BDA245-65D9-4805-A5C6-A8D40D063BC5}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{49CFEA6B-7715-4937-A15B-8EB964250719}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B7CD2651-F956-4545-BA87-E539BDFA0127}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{534B7559-182B-4311-946E-F69180EAB93D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A1E62C72-D03F-4306-88B5-E3D83239A779}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{70FC3323-3504-4FB8-BEA6-214966806A14}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{76C38B2B-74A4-4F7C-8A72-DBE1C2F61810}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{823BCD00-5400-4753-9B3C-1BCAD3765344}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6B7AE9-9D17-4B22-B50F-6DB14FAB7FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA1FBE5-F222-4446-AFB0-E17BAFC26CA9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2523,18 +2523,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D22225ED-C7AB-472F-B548-F964F011FD80}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{141DF3B6-D75F-498F-8F3A-9838FC75A3DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DB6C1D6-DF8B-438E-971C-CF3541A824EE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F0130109-EC6B-4ECC-8619-F38EB1DE9C35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE84A1B3-F980-45F7-B281-285587D37071}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6339A1AD-88D8-47CE-82CA-AE3B4285065E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77D4673A-5283-4BB9-B475-77333BE1232B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82DE0675-E3E2-427D-8706-6721454E6EA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16B228F4-DC5F-4456-A714-D1691AC02FA0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEAC499D-A3FB-431E-B2E8-676E121FCB97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{298A4733-4A39-4B89-850F-F887392E91B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE5E27C6-8E59-4410-914A-53E06CA2FFCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A60F3147-CAE6-4F1B-9063-00161467F453}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7DEF708-FC09-4F6C-BB66-65DFD79256F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0CE2A69F-3414-40DF-97DA-3EB5C452DB1A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B94B789-DD08-4FDE-86C5-8136F1EF760F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8105E914-67BA-4646-AC9E-1F3702E03739}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B05CC576-B949-4440-AA1F-F64886BD3062}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B99B031-59B1-4C52-A021-498784EF6089}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D8BF7CD-E5D8-47CB-9303-A97603BA7E12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA25760D-32DD-4AA9-BC89-250E58A79084}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D656AF8-4D15-4CA3-A776-F4DF145741D3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ABC32255-77CB-46B7-8530-E233300A651E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF9683F2-6A4F-43EE-9882-3A4628FEA4F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2547,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D131F43-859B-41AA-A9A1-E209BF501537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1527FE75-B7AD-46EF-B562-5B9178DB26C4}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3706,18 +3706,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EFA3B64-A0D7-4FDB-B3FE-DF2F10CDB207}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1896A252-6716-41A0-B4CA-04A19C3A4E04}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBD7BA05-FD27-4FC1-8D37-51772E2E6B85}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{78F38EFD-0A13-4DB9-B03C-17008214C112}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7356655-F925-40D9-A5CF-A88E00347266}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A969BFE7-F9E1-4077-99E5-274E5CCB8052}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A257EDB-F1A7-4368-8255-9DD4770203C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2749F882-5EDB-4306-A606-B6CCAEA34AE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F6E9EA3-3CFB-4A77-B418-98CF64E9981E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{475B6955-D808-4B14-BA85-886E0F9C5EFE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7FC8CFB-EE4E-40FC-923A-43B3F0C281C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCFAAA9D-16F0-4491-AB05-3087B164E1D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14787922-6A72-4382-8A16-80DE90347B7B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1D10256-26F6-4BE5-B973-D2FC3C0A86A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B072EB38-FF9F-4F18-BA3A-607BFD819189}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB65597D-2FF1-42AA-8E99-30900230BF3B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED435BDD-692B-416F-8469-29A71660F019}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{074D1CAC-8275-4871-995E-D1027281EC7E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84F4641E-BE55-4F2D-A6D6-541C32D4DCDC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{134A7EC3-0340-48FB-B77C-EC69AEEBEA9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{878C3CDC-AE3D-4BBA-A380-FF5AC0499748}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9B02BC6-6904-4DE2-AB41-0D29196CA714}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0F549BF-D322-44E1-B3B3-A41EA5C768A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AE3F3A7-912A-4DEB-97B3-B282962A785D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E39A4EE-D7AA-4127-B3A2-CB2A6A67397E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954CD7F2-F2D7-43B9-A368-EF5FE2307E9C}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4889,17 +4889,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89FD73E1-F6FF-4D5C-88E4-1C9E811AAFC9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8062BE03-DB6F-486C-AC91-9AF75C60D6E0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{943146B8-6DA3-4239-B2AE-EFBF50FCFBD9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27F680B1-F60D-4A15-BDC1-7CD3CF828FE5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{672FFCCE-752E-4C9D-86CB-5373A0FA7DA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7C77FB8-CC58-4061-9516-EC43C2EC4710}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95E81F3A-D036-4673-A1A1-60D2A67459A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6400781F-1469-4F37-9B9A-8E8B446EFAD8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{446606EB-619C-4889-951C-E0457FB47E94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3C23EE4-BD58-4B84-8E17-919F64978939}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43CAD559-5172-421E-8670-C147BABA51EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B95B3A0-B0F1-42DA-9C14-D11F94E8647D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B28AD58-EFE3-453A-89CD-0E51C5BC3804}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E62ED402-02A5-44B1-88FD-E962646F9052}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCE51A6C-184D-48A4-91C3-2DD36B59DDF8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6270538-8ACB-4EBF-8F09-D0B6FB6B709F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{452B733C-DC29-499B-AEFC-976D209E119A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFEFDF25-ACD2-46C4-A55A-535125D5F093}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{976C3248-2CC3-4FAB-B075-97A31E574D6F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62219B83-9BC9-49C5-9410-58C41BAC415C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1090CCD-F981-42E0-BDCC-269DE6DDF76E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEEB27BF-A719-4908-B9D1-7D571EE11DE0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4912,7 +4912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44268783-5FA5-4D1A-896C-867E7B88B5FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0250D654-81F4-4E41-9D97-B552A07F3E76}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6067,18 +6067,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C30EDAC7-C00B-4A91-AF0B-423413F3627E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4E63F1B-A699-4899-92D5-1B64DC723D1C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B4463AD-50B0-43F2-8FA8-75947FEDE12F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F4294A6-E84B-498F-896B-3FE83C353360}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F069B57D-9A90-4B1B-A9B4-9A82151AA5A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8906C864-9DD0-4E1B-929C-99EDDE1BF59C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7954FFE2-F271-4481-B9FC-96BD3D707F9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A411103-515A-4285-AB15-4674F6A1944D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{198F70EF-535B-499C-8EB1-EC6290DABB6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{739C064A-1611-4D88-8EA9-C8BC53297FD4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D595581-52C5-4CBC-B093-66DFA5B3A24A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A190746-7134-49B5-83FF-06685258330A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33ABD69F-1916-4A6E-AEF2-EE2A0DADB68C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{668746A5-3DBC-41FE-83CB-1FEFF7ACA1B3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{10A415F7-997B-4D01-994D-3C0ACD5A769F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{544649AE-EC82-44DA-B877-52B3B9C8BF0A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59D364B1-7F45-4365-9F9F-4E6F372E815F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C294F3B6-5B5B-4DFA-81C9-1D524CDA250E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D7BDFB4-D1B5-4F0F-B8A2-970738F39C9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EADF505-4EFD-4583-ADCC-C9A2723A71CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{297C8FD3-D18B-45F7-838C-30405F0A9CCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0445ED1D-B1DA-40BC-9244-95B25C6A7CCF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{102C150F-D79C-4187-B05F-6969B0E86F38}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE0AF6C9-2056-4FF9-8AA0-282C07AE443E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6091,7 +6091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9304F3F8-008A-474B-88D6-AD0B2B1E7BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF34E441-ACC5-4CB8-93D4-C0277F115AE1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7262,18 +7262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA7C41BD-4F3E-45D4-BEFD-B70966FC779F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0524C1EE-5D3C-44EE-9276-02E480D4FA40}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{862CFAFA-97EB-41F5-8EF3-06E21BCD1BA3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{462DC5A2-18AC-472F-9F72-753D01BF9A57}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{677DCD8C-40A7-4736-BBAF-D946E2B971AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A62B78CA-C498-431A-99F7-4359D76681CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EE43614-F46F-4635-BC93-28AB00D4F830}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B728BEA9-88AF-4D36-9486-63ABAB414360}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB36F70B-0525-401F-A765-6FDD94749EF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E65594BF-81DC-4E69-90D6-86C73AB88D3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0D3370C-C0FC-4264-880E-1C8833DB2AB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{524A44DA-DD83-4E85-B4FE-2C653EBC6A29}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F58BF0AB-8864-4645-BCF1-0A4925EDBCBF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5FFCE04A-788E-4FD7-A6E2-EDAE259405BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D615BCFD-0A57-4ED9-8357-EFDE1934299A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{10E813F6-5DBE-4CF5-BE7C-DBD4500AEFC2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7DF61B9-2A91-47F4-89FB-023C0E913538}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F17834F-5D8A-4632-A8BA-AF8DC623BF4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18C40F19-AF51-47F6-BF33-66081D5B766D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{416F4D21-43A7-4AB1-AE23-A872EF639A15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{470BE4E9-1FC8-4DA5-96DC-041900C36416}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40950E55-DC00-4C16-A501-13913DE6C2B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{683D3007-A380-41A6-B8E0-6DE973519713}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98BC663E-DA9D-454A-AC2D-F21F10B7DFFA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7286,7 +7286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6953E9C5-0C72-485B-8DF2-766B2F06497C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBA071B-50BF-4105-A8B8-C175921364B1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8457,18 +8457,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B612CEDB-B558-4FDF-BBB3-677FD47840CB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ACFF1E78-96EB-4D96-9E76-B710B8F20347}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8FDA8DA-3FAB-4BB4-A4D0-F0772813722C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9989C56-35D5-4AFC-A851-C43E8D0C5A07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4168A742-E25C-484B-9736-F57A9972D870}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEBD3BF7-7EC5-43F7-9ECA-1DD99019452C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE8ECBB0-6810-4A33-A74C-0D1C9F02D1D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54F1860F-83E8-4634-B546-499F00B69C27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDB744E7-D749-414C-8A3A-3F99C18DCEF6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D07F65DC-908E-4F49-AD52-0E1E9A47EDFB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D48A8F01-C4E1-4B26-B178-641773CCC051}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{058DB3D3-A8E5-40E1-8821-8AD1EDF5FFB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3C97705-777D-4110-B2D1-798320E42830}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A8C33014-C235-497B-A8B2-F6A1217FDDC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4F530A4-B1CD-4E3B-BB95-D006278CD629}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84CD59EE-CAB4-4AB8-8639-676F706BDE8A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6D72199-FB0D-4110-A2E3-9217DD43D3EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09EA6716-DC28-4F71-A76F-0591B8174E64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFDC96C4-C758-4D48-895D-720AEAE1C863}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFEDC81E-02AF-4773-96CA-DB509297B1D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A470558-A685-4955-A44B-019403F77CF6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BEEA0037-7353-4017-AEAD-EA63B6446106}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{034FB913-2D93-45ED-9839-FB2962082B4F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1F39C4C-F68A-4AC3-A4BD-5A374158B648}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8481,7 +8481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA195E2-ACDF-456B-8902-8D25C4C12567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4B982B-D9B8-46E5-95C4-15712771635C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9652,18 +9652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A91DC9F-8C0E-4B5D-AE6F-A66761FF9702}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D46DECF0-1F1B-43FB-B32B-0A2BAA70F307}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D949CAB-2E92-402D-8C0D-C2CEF7693265}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F19FA0C8-6BA1-4D99-87E1-D682002CD521}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4121D5A-51B4-411C-B2A3-719E64741B42}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49E9D687-9BA6-4AF8-A369-5E33BB43A0F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D79A6A38-E368-4E0E-A107-8C3EAAFC0BDF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{328EADBA-C33F-4047-944C-67177131BC71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B22BC4E-F133-4122-A45C-4807D5F023B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2B64757-2965-4884-B190-605F76F45F6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E88F186-951B-46E8-8B92-CC1C86001146}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB52BB62-E286-48D9-B4BB-023C9433B44F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA8F09F9-B8A0-47C3-AC74-CBB5ED7D02DE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B4017F4-8328-497A-8717-B5B10BC8A908}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{077874E1-1668-47DB-9F11-BB5BF4758770}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7F5CB491-D731-466B-A617-059C60CB8197}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00343740-ECE9-4B94-9924-745E58924B84}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2299E146-74BA-4E14-898F-2DD6CF31F08F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CF660B0-481F-408D-8F0F-E86594FC3E84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FED6AEE5-130D-43EF-8542-3B586AABF434}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D533BC4-40AE-4722-AFC1-386C5EA62532}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F24B07F-6EF8-418C-A553-0124181238ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE575F88-D8A6-4E29-918E-7DDE196D9F3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E7DC6FC-9B27-42A8-83D1-205C2BC4512A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9676,7 +9676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116242F8-0365-495D-9CDD-9E17B72A657A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D097050-0349-40F2-A3DA-7DC4CAFD71DD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10847,18 +10847,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63B8C840-0F4C-45C3-B1C8-8B5E8CDAD862}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1EF9AEB-B9C3-4412-809A-D5CEA6B84927}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63A56E69-5C60-45C1-BA9E-D3CD45A00FA2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4979DCE-123D-4C62-9F19-73430E288947}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E55A37E2-EE6D-493A-ADE7-106D22EF0B35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40FBE912-1C58-4B42-B140-82F53EF4E6D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F17FFA61-C457-4D20-B289-32C07D43328C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{078A0AA6-F13F-4DC9-9A9E-56287540DDC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{536CC98E-4DDA-4A1C-8D25-0DF8CB3B17B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3A05B35-95AB-46BD-9989-988C847ACBF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69C79E88-4BB5-47C5-911D-6108D42EF4E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EFABBFF-F9AA-4BB6-8943-0250E19B978A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3B3AD19-5374-4D35-8F8C-5224A36BC205}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{079AB167-9003-49DA-88D2-DC78F19355F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB405C55-DEC7-4FC1-8922-84AAB096D271}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{77606161-9094-4ACB-A714-1BA588064A61}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{334E5B06-2CAD-4C76-BF1C-4934C2BA84BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FEAA2F0-1F75-4439-9C2E-0E639F61C1E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01FA7A16-9481-4487-91C0-0F032CF5AA4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83E1B049-C5FE-411D-B498-C7CFF4B2230C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1F1331E-B7F7-4744-A9BC-2397F7BF7209}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87F1F30F-CEB7-40C4-B00C-59B5819B60BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{102E1945-8FE2-45FE-A5EB-592D804FD9E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{537819DB-AE73-4195-80D7-6BFA2CFC475A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10871,7 +10871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D164EE-51BE-4AB7-B59C-9C0C68709C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B74E54D-3687-446F-BE04-D286A599AF9B}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12030,18 +12030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B574E51-552E-459D-AEA8-C5236C4B33F6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0410FDCA-C711-4EB7-965C-38C923BAD734}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99787B6D-2559-4817-9AC0-2AB7FEB0455B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{608D40B4-5971-4B6F-B6D5-5DF364FD1D21}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B050F9C-8CB6-4C63-9B9A-3335CDADA54D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{897532A1-1718-4F4F-B713-F4A1858E7B6A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{433EFCBA-692F-4D95-AE30-A2B5F9B9A860}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AA55B61-87DF-41BC-8726-2524E5529BAF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2C08DDE-A137-4489-A7EC-F1069E9D40BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{07CCF947-CEE8-453B-8CFB-A6506327A7D5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A55CE9E3-6695-46D7-A490-695833FA5E5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A0B8DBA-BA05-4067-B945-5B6258EE01E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9089A0EB-BF61-447D-803F-9056390EB4D8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{108029E7-8B24-43D2-85D2-3EF5DD10DE62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A8C31C2-C17F-45B7-96F6-EDB8D5108AEC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4198745-0EA7-4E93-988A-31C79C34519F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1CA8E26-3440-459C-B947-AB6932322613}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8429FEE-B4F7-49CA-8D26-AA132C1261AE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FFCD47D-77E1-4FF8-823B-11A1CC0E01B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B32369F3-6A01-40ED-9FE9-FC1997827164}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89DB2B16-7F6C-4652-B563-2F63DCF92E92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD4CC5AC-CFD6-456C-A4DD-E6C0F2F65137}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66A64F28-53D0-4CEE-A031-89F90F75DC7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07960D77-DF40-42A4-9F42-6889B01D2EBB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12054,7 +12054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1617F71B-CA8D-47CF-A99C-44A180DAF5FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5086B-6DF9-484C-8643-414CC5FBE291}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13213,18 +13213,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B7B4B5D-2574-4A30-A4BC-86CCF9FDC558}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{915EB103-DAF9-4F67-A7DE-DB52F87C8958}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD00BC91-0E61-4618-A7D7-6564C5FBED4C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{32D32B7D-C906-4A4B-BF43-B950C14C8463}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{328A6872-A02B-4F6A-B9CA-ABA34D5F0E38}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66525C2C-9AD4-4920-A9FA-A610922E01FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFE70C5A-C0CD-4D40-8A51-2580DCF02726}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{967AC039-237F-4D0E-A97F-FDAD25A58090}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5501611D-C1A6-4D8E-BE98-117230E6FB51}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69DD7464-6A21-48AE-BCC1-2772C68F6A1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA874A0D-94E0-4558-BA16-5C8911E22011}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F6633B1-48D9-4691-891F-177D213DEA81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98022F13-1079-48CE-8BF0-E2737A56EF0E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{385AA6CB-6593-423B-9B84-A247F5F33090}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E016A2A-227B-406E-AA82-E6B7594CD511}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E1E05C22-0DDC-48D3-899E-E86069A524FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61CB9BF1-573E-48F3-96DD-415BBAA426F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACC09494-276B-4848-B045-A94F0A72EBF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F2C9A6A-5AFC-484A-B661-64539FA88D5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4E7B0C6-6845-4D72-AFF8-C313EA88EABC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F1BDC6D-A692-415E-8901-C47B685B4103}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32664E0C-3499-44A9-AF1B-0AE88D1A99E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C77525E-ADDC-4D28-9C84-3F707F9222A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8033554-9309-42AA-9122-7AD7870849A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13237,7 +13237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A52F235-6D54-44A5-BC7F-A759AA7C9DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0050D7B-A659-4DDC-B476-9E805CBFA9B7}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14396,18 +14396,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{674D5636-E2A8-4747-BCF3-285E7982192B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3A98BD1-2E54-46D7-A843-D3682F3CDC0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{978E5302-C1BA-46E0-80E7-27D11547FF8C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D39702DE-445C-47E5-920D-B031DC50E342}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A804F411-A0F6-4B51-B5A2-9B4CE58D5782}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{136512A9-EC88-481F-8213-BFE9DB760C1E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E76B88BE-6207-4C23-AF9C-9E60A83551E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C2D91EE-03F0-4808-92A0-2B301A94F9E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{779B0161-1599-4C5E-9D9E-8A643B0C1929}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{063292D3-41D6-43A6-906A-611109576B8D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74C1C1CE-C5D2-460B-A190-D63478164428}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73048DA9-BFD7-4FE4-971F-B9D1167ABA33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F206316-BDCB-4194-9FF8-8E5A97226C27}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1A57BEE-43CB-4C37-AFC1-9634A4392888}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BD5D7FE-F91A-4A0E-863E-6606BB2687A7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E28AEE6-6DEB-4F05-AA5A-F1C92EC70468}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A42C36D0-6971-4AE4-A4AC-4810E8FF8FD7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7292B72F-BD58-4800-A0D1-07B16E593CCC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{245CC176-F6C6-4180-AB8F-42D6FC420C78}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52D3396E-1BF3-4EB4-97D6-6B7003A193ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B03292C7-9687-42DF-9A03-DE0A6D4A615F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63E45E87-9D12-4321-8002-BA7BB57109A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A07138E-DB65-481F-86B8-66C6A5F37DAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7E41158-10AE-4A7A-B964-FF48CDB84F43}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14420,7 +14420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D8AE90-EE96-4FAA-8228-D3AC146F6808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A72806-B48C-4601-AA3C-DD4AC08E71F0}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15579,18 +15579,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15B49EA8-21A6-4CC4-A7B7-DF1EFA0578C5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69D3D1C2-8793-4CFF-8908-BBB3F57572DE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{812B5BB8-0932-4AFA-B816-D99B5C584627}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{759F9094-179E-4891-9D85-33675AADE8B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE12A71D-F7BA-42C8-B8FF-B42B56A6DB23}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4AD3AFE5-760C-4F51-B7A0-21041AF12214}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF5C0B98-C5C6-4DDE-B005-943C9ACA840B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5680CEE-09E1-46B2-8C95-936201D5C536}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA2CCEE2-3B00-4957-B929-5812E78CBEAD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5FA4B869-5E78-449C-87F5-75E6AF1B36B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FFA5C1C-99DD-4B4E-AEC9-29CC3AFABB0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59DC656D-DBE3-4855-B90D-BE97AC9189B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AEF9611-49B2-4639-A90A-DCBB8CD28FF7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E585D3E-B2E1-45B7-855F-C56B5C463D78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2E6EF92-E0C5-4A8B-AA38-05FC0B5B1927}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7D1E804F-F0D0-4D88-85F7-FDB72B3DA102}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7612B2CB-07FE-40D6-BF14-3EEFE6B2C774}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B63924A2-FD87-4A38-B438-3D0F98885E8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A277BBA-BF1D-4B73-A455-796B429466AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03D11CC7-BE99-49F4-919E-2FAD82287322}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49C6B885-F7E0-483F-ABE1-73999278EC6B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96F04B26-1EEF-4238-8D7E-1D956364D45F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43F6DA88-7AD1-4E39-AA4B-EC4293551D21}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D90BF76E-1DD8-45C3-AD7C-D254F41BBE4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
